--- a/inst/extdata/examples/xlsx/line-dash.xlsx
+++ b/inst/extdata/examples/xlsx/line-dash.xlsx
@@ -42,7 +42,7 @@
     <t xml:space="preserve">y_lab</t>
   </si>
   <si>
-    <t xml:space="preserve">1; 2; 3; 4; 5; 6;</t>
+    <t xml:space="preserve">1;; 2;; 3;; 4;; 5;; 6;;</t>
   </si>
   <si>
     <t xml:space="preserve">footnote</t>
@@ -72,7 +72,7 @@
     <t xml:space="preserve">y_r_lab</t>
   </si>
   <si>
-    <t xml:space="preserve">; 1; 2; 3; 4; 5; 6</t>
+    <t xml:space="preserve">;; 1;; 2;; 3;; 4;; 5;; 6</t>
   </si>
   <si>
     <t xml:space="preserve">x_axis_show</t>
